--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="E2" t="n">
-        <v>0.053</v>
+        <v>0.057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>8.407999999999999</v>
+        <v>4.866</v>
       </c>
       <c r="E3" t="n">
-        <v>11.005</v>
+        <v>4.921</v>
       </c>
       <c r="F3" t="n">
-        <v>8.724</v>
+        <v>4.812</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.081</v>
+        <v>0.061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.102</v>
+        <v>0.062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.082</v>
+        <v>0.061</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>48.352</v>
+        <v>44.331</v>
       </c>
       <c r="E5" t="n">
-        <v>49.977</v>
+        <v>47.607</v>
       </c>
       <c r="F5" t="n">
-        <v>48.247</v>
+        <v>45.234</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.872</v>
+        <v>6.572</v>
       </c>
       <c r="E6" t="n">
-        <v>7.176</v>
+        <v>6.629</v>
       </c>
       <c r="F6" t="n">
-        <v>6.934</v>
+        <v>6.577</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48720</v>
+        <v>49224</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>23.586</v>
+        <v>20.507</v>
       </c>
       <c r="E7" t="n">
-        <v>38.592</v>
+        <v>23.624</v>
       </c>
       <c r="F7" t="n">
-        <v>26.384</v>
+        <v>21.168</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>88.39400000000001</v>
+        <v>85.068</v>
       </c>
       <c r="E8" t="n">
-        <v>89.617</v>
+        <v>87.938</v>
       </c>
       <c r="F8" t="n">
-        <v>88.639</v>
+        <v>85.83799999999999</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>8.085000000000001</v>
+        <v>6.876</v>
       </c>
       <c r="E9" t="n">
-        <v>9.566000000000001</v>
+        <v>7.104</v>
       </c>
       <c r="F9" t="n">
-        <v>8.518000000000001</v>
+        <v>6.926</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.532</v>
+        <v>1.531</v>
       </c>
       <c r="E10" t="n">
-        <v>1.594</v>
+        <v>1.566</v>
       </c>
       <c r="F10" t="n">
-        <v>1.543</v>
+        <v>1.533</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>65.116</v>
+        <v>61.917</v>
       </c>
       <c r="E11" t="n">
-        <v>68.172</v>
+        <v>65.747</v>
       </c>
       <c r="F11" t="n">
-        <v>65.68600000000001</v>
+        <v>62.905</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>53.287</v>
+        <v>48.651</v>
       </c>
       <c r="E12" t="n">
-        <v>69.342</v>
+        <v>51.166</v>
       </c>
       <c r="F12" t="n">
-        <v>59.407</v>
+        <v>48.586</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>29.774</v>
+        <v>22.324</v>
       </c>
       <c r="E13" t="n">
-        <v>40.282</v>
+        <v>22.456</v>
       </c>
       <c r="F13" t="n">
-        <v>32.919</v>
+        <v>22.278</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>43.753</v>
+        <v>41.518</v>
       </c>
       <c r="E14" t="n">
-        <v>49.525</v>
+        <v>47.38</v>
       </c>
       <c r="F14" t="n">
-        <v>44.998</v>
+        <v>42.814</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>119.27</v>
+        <v>107.453</v>
       </c>
       <c r="E15" t="n">
-        <v>141.416</v>
+        <v>110.541</v>
       </c>
       <c r="F15" t="n">
-        <v>121.277</v>
+        <v>106.81</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>36.822</v>
+        <v>34.672</v>
       </c>
       <c r="E16" t="n">
-        <v>36.997</v>
+        <v>36.589</v>
       </c>
       <c r="F16" t="n">
-        <v>36.848</v>
+        <v>35.031</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>66.241</v>
+        <v>65.53400000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>67.229</v>
+        <v>73.559</v>
       </c>
       <c r="F17" t="n">
-        <v>65.88200000000001</v>
+        <v>67.36199999999999</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>83.565</v>
+        <v>84.051</v>
       </c>
       <c r="E18" t="n">
-        <v>85.09399999999999</v>
+        <v>87.363</v>
       </c>
       <c r="F18" t="n">
-        <v>83.95</v>
+        <v>84.358</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>8.462</v>
+        <v>7.215</v>
       </c>
       <c r="E19" t="n">
-        <v>8.590999999999999</v>
+        <v>7.498</v>
       </c>
       <c r="F19" t="n">
-        <v>8.398999999999999</v>
+        <v>7.298</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.559</v>
+        <v>1.945</v>
       </c>
       <c r="E20" t="n">
-        <v>2.509</v>
+        <v>2.566</v>
       </c>
       <c r="F20" t="n">
-        <v>1.762</v>
+        <v>1.956</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>68.901</v>
+        <v>66.901</v>
       </c>
       <c r="E21" t="n">
-        <v>74.863</v>
+        <v>69.252</v>
       </c>
       <c r="F21" t="n">
-        <v>69.761</v>
+        <v>67.453</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="E22" t="n">
-        <v>0.065</v>
+        <v>0.058</v>
       </c>
       <c r="F22" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>5.901</v>
+        <v>3.997</v>
       </c>
       <c r="E23" t="n">
-        <v>6.199</v>
+        <v>4.224</v>
       </c>
       <c r="F23" t="n">
-        <v>5.899</v>
+        <v>4.042</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>26810</v>
+        <v>26824</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.049</v>
       </c>
-      <c r="E24" t="n">
-        <v>0.075</v>
-      </c>
       <c r="F24" t="n">
-        <v>0.054</v>
+        <v>0.048</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>33.206</v>
+        <v>30.73</v>
       </c>
       <c r="E25" t="n">
-        <v>34.016</v>
+        <v>32.739</v>
       </c>
       <c r="F25" t="n">
-        <v>33.28</v>
+        <v>30.203</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39837</v>
+        <v>39851</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>5.14</v>
+        <v>4.902</v>
       </c>
       <c r="E26" t="n">
-        <v>6.267</v>
+        <v>5.324</v>
       </c>
       <c r="F26" t="n">
-        <v>5.31</v>
+        <v>4.983</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>30016</v>
+        <v>30107</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>12.83</v>
+        <v>12.778</v>
       </c>
       <c r="E27" t="n">
-        <v>13.355</v>
+        <v>14.446</v>
       </c>
       <c r="F27" t="n">
-        <v>12.862</v>
+        <v>13.117</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>33852</v>
+        <v>33929</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>23.472</v>
+        <v>24.19</v>
       </c>
       <c r="E28" t="n">
-        <v>24.261</v>
+        <v>25.104</v>
       </c>
       <c r="F28" t="n">
-        <v>23.554</v>
+        <v>24.217</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36680</v>
+        <v>36694</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>4.853</v>
+        <v>4.571</v>
       </c>
       <c r="E29" t="n">
-        <v>5.092</v>
+        <v>4.726</v>
       </c>
       <c r="F29" t="n">
-        <v>4.885</v>
+        <v>4.612</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27097</v>
+        <v>27111</v>
       </c>
     </row>
     <row r="30">
@@ -1333,10 +1333,10 @@
         <v>0.01</v>
       </c>
       <c r="E30" t="n">
-        <v>0.014</v>
+        <v>0.011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>16.496</v>
+        <v>15.116</v>
       </c>
       <c r="E31" t="n">
-        <v>17.451</v>
+        <v>17.441</v>
       </c>
       <c r="F31" t="n">
-        <v>16.537</v>
+        <v>15.451</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36449</v>
+        <v>36463</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>26.103</v>
+        <v>15.768</v>
       </c>
       <c r="E32" t="n">
-        <v>35.036</v>
+        <v>15.9</v>
       </c>
       <c r="F32" t="n">
-        <v>26.687</v>
+        <v>15.783</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>38.127</v>
+        <v>30.308</v>
       </c>
       <c r="E33" t="n">
-        <v>39.789</v>
+        <v>31.779</v>
       </c>
       <c r="F33" t="n">
-        <v>38.283</v>
+        <v>30.614</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>17.51</v>
+        <v>17.107</v>
       </c>
       <c r="E34" t="n">
-        <v>18.542</v>
+        <v>20.056</v>
       </c>
       <c r="F34" t="n">
-        <v>17.784</v>
+        <v>17.608</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>67.816</v>
+        <v>64.649</v>
       </c>
       <c r="E35" t="n">
-        <v>69.892</v>
+        <v>71.40300000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>67.554</v>
+        <v>66.377</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>21.497</v>
+        <v>17.917</v>
       </c>
       <c r="E36" t="n">
-        <v>22.719</v>
+        <v>18.419</v>
       </c>
       <c r="F36" t="n">
-        <v>21.58</v>
+        <v>18.014</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>39.995</v>
+        <v>38.958</v>
       </c>
       <c r="E37" t="n">
-        <v>41.333</v>
+        <v>41.892</v>
       </c>
       <c r="F37" t="n">
-        <v>40.046</v>
+        <v>39.564</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>42.19</v>
+        <v>37.244</v>
       </c>
       <c r="E38" t="n">
-        <v>46.303</v>
+        <v>42.688</v>
       </c>
       <c r="F38" t="n">
-        <v>42.515</v>
+        <v>38.854</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>27.477</v>
+        <v>27.209</v>
       </c>
       <c r="E39" t="n">
-        <v>28.939</v>
+        <v>28.899</v>
       </c>
       <c r="F39" t="n">
-        <v>27.79</v>
+        <v>27.443</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>28.453</v>
+        <v>26.894</v>
       </c>
       <c r="E40" t="n">
-        <v>29.964</v>
+        <v>29.83</v>
       </c>
       <c r="F40" t="n">
-        <v>28.52</v>
+        <v>27.31</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>33.334</v>
+        <v>34.344</v>
       </c>
       <c r="E41" t="n">
-        <v>34.128</v>
+        <v>37.833</v>
       </c>
       <c r="F41" t="n">
-        <v>33.499</v>
+        <v>34.469</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>36134</v>
+        <v>36148</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -490,13 +490,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.054</v>
+        <v>0.049</v>
       </c>
       <c r="E2" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
       <c r="F2" t="n">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>4.866</v>
+        <v>4.672</v>
       </c>
       <c r="E3" t="n">
-        <v>4.921</v>
+        <v>4.744</v>
       </c>
       <c r="F3" t="n">
-        <v>4.812</v>
+        <v>4.615</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.062</v>
+        <v>0.06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.061</v>
+        <v>0.058</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>44.331</v>
+        <v>44.398</v>
       </c>
       <c r="E5" t="n">
-        <v>47.607</v>
+        <v>46.424</v>
       </c>
       <c r="F5" t="n">
-        <v>45.234</v>
+        <v>44.362</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.572</v>
+        <v>6.41</v>
       </c>
       <c r="E6" t="n">
-        <v>6.629</v>
+        <v>7.187</v>
       </c>
       <c r="F6" t="n">
-        <v>6.577</v>
+        <v>6.607</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49224</v>
+        <v>48664</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>20.507</v>
+        <v>20.226</v>
       </c>
       <c r="E7" t="n">
-        <v>23.624</v>
+        <v>21.353</v>
       </c>
       <c r="F7" t="n">
-        <v>21.168</v>
+        <v>20.163</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>85.068</v>
+        <v>86.553</v>
       </c>
       <c r="E8" t="n">
-        <v>87.938</v>
+        <v>92.64</v>
       </c>
       <c r="F8" t="n">
-        <v>85.83799999999999</v>
+        <v>87.524</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>6.876</v>
+        <v>55.885</v>
       </c>
       <c r="E9" t="n">
-        <v>7.104</v>
+        <v>56.478</v>
       </c>
       <c r="F9" t="n">
-        <v>6.926</v>
+        <v>56.003</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>29043</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1.531</v>
+        <v>55.655</v>
       </c>
       <c r="E10" t="n">
-        <v>1.566</v>
+        <v>56.331</v>
       </c>
       <c r="F10" t="n">
-        <v>1.533</v>
+        <v>55.781</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2002</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="11">
@@ -760,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="D11" t="n">
-        <v>61.917</v>
+        <v>79.875</v>
       </c>
       <c r="E11" t="n">
-        <v>65.747</v>
+        <v>81.014</v>
       </c>
       <c r="F11" t="n">
-        <v>62.905</v>
+        <v>80.131</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>120407</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="12">
@@ -790,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>48.651</v>
+        <v>48.794</v>
       </c>
       <c r="E12" t="n">
-        <v>51.166</v>
+        <v>50.446</v>
       </c>
       <c r="F12" t="n">
-        <v>48.586</v>
+        <v>48.601</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>22.324</v>
+        <v>46.713</v>
       </c>
       <c r="E13" t="n">
-        <v>22.456</v>
+        <v>47.351</v>
       </c>
       <c r="F13" t="n">
-        <v>22.278</v>
+        <v>46.568</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>41.518</v>
+        <v>40.226</v>
       </c>
       <c r="E14" t="n">
-        <v>47.38</v>
+        <v>40.531</v>
       </c>
       <c r="F14" t="n">
-        <v>42.814</v>
+        <v>40.326</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>107.453</v>
+        <v>104.091</v>
       </c>
       <c r="E15" t="n">
-        <v>110.541</v>
+        <v>109.468</v>
       </c>
       <c r="F15" t="n">
-        <v>106.81</v>
+        <v>105.163</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>34.672</v>
+        <v>97.327</v>
       </c>
       <c r="E16" t="n">
-        <v>36.589</v>
+        <v>98.69499999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>35.031</v>
+        <v>97.059</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>7</v>
       </c>
       <c r="D17" t="n">
-        <v>65.53400000000001</v>
+        <v>61.673</v>
       </c>
       <c r="E17" t="n">
-        <v>73.559</v>
+        <v>64.386</v>
       </c>
       <c r="F17" t="n">
-        <v>67.36199999999999</v>
+        <v>62.14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>84.051</v>
+        <v>80.074</v>
       </c>
       <c r="E18" t="n">
-        <v>87.363</v>
+        <v>80.595</v>
       </c>
       <c r="F18" t="n">
-        <v>84.358</v>
+        <v>80.09099999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>7</v>
       </c>
       <c r="D19" t="n">
-        <v>7.215</v>
+        <v>57.1</v>
       </c>
       <c r="E19" t="n">
-        <v>7.498</v>
+        <v>58.134</v>
       </c>
       <c r="F19" t="n">
-        <v>7.298</v>
+        <v>57.344</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29043</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="20">
@@ -1030,19 +1030,19 @@
         <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>1.945</v>
+        <v>56.697</v>
       </c>
       <c r="E20" t="n">
-        <v>2.566</v>
+        <v>58.226</v>
       </c>
       <c r="F20" t="n">
-        <v>1.956</v>
+        <v>56.868</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2002</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="21">
@@ -1060,19 +1060,19 @@
         <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>66.901</v>
+        <v>83.86799999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>69.252</v>
+        <v>87.52800000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>67.453</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>120407</v>
+        <v>116431</v>
       </c>
     </row>
     <row r="22">
@@ -1090,13 +1090,13 @@
         <v>7</v>
       </c>
       <c r="D22" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.055</v>
       </c>
-      <c r="E22" t="n">
-        <v>0.058</v>
-      </c>
       <c r="F22" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1120,19 +1120,19 @@
         <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>3.997</v>
+        <v>3.856</v>
       </c>
       <c r="E23" t="n">
-        <v>4.224</v>
+        <v>4.126</v>
       </c>
       <c r="F23" t="n">
-        <v>4.042</v>
+        <v>3.871</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>26824</v>
+        <v>26740</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D24" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="E24" t="n">
         <v>0.049</v>
       </c>
       <c r="F24" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>30.73</v>
+        <v>24.7</v>
       </c>
       <c r="E25" t="n">
-        <v>32.739</v>
+        <v>25.728</v>
       </c>
       <c r="F25" t="n">
-        <v>30.203</v>
+        <v>24.95</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39851</v>
+        <v>39837</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>4.902</v>
+        <v>4.591</v>
       </c>
       <c r="E26" t="n">
-        <v>5.324</v>
+        <v>4.615</v>
       </c>
       <c r="F26" t="n">
-        <v>4.983</v>
+        <v>4.578</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>30107</v>
+        <v>29820</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>12.778</v>
+        <v>10.418</v>
       </c>
       <c r="E27" t="n">
-        <v>14.446</v>
+        <v>11.893</v>
       </c>
       <c r="F27" t="n">
-        <v>13.117</v>
+        <v>10.7</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>33929</v>
+        <v>33803</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>24.19</v>
+        <v>22.776</v>
       </c>
       <c r="E28" t="n">
-        <v>25.104</v>
+        <v>23.636</v>
       </c>
       <c r="F28" t="n">
-        <v>24.217</v>
+        <v>22.897</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36694</v>
+        <v>36680</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>4.571</v>
+        <v>3.339</v>
       </c>
       <c r="E29" t="n">
-        <v>4.726</v>
+        <v>3.642</v>
       </c>
       <c r="F29" t="n">
-        <v>4.612</v>
+        <v>3.399</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27111</v>
+        <v>26859</v>
       </c>
     </row>
     <row r="30">
@@ -1330,13 +1330,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="E30" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.011</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1360,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>15.116</v>
+        <v>13.166</v>
       </c>
       <c r="E31" t="n">
-        <v>17.441</v>
+        <v>13.706</v>
       </c>
       <c r="F31" t="n">
-        <v>15.451</v>
+        <v>13.214</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36463</v>
+        <v>36449</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>15.768</v>
+        <v>18.352</v>
       </c>
       <c r="E32" t="n">
-        <v>15.9</v>
+        <v>19.015</v>
       </c>
       <c r="F32" t="n">
-        <v>15.783</v>
+        <v>18.407</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>7</v>
       </c>
       <c r="D33" t="n">
-        <v>30.308</v>
+        <v>29.84</v>
       </c>
       <c r="E33" t="n">
-        <v>31.779</v>
+        <v>30.17</v>
       </c>
       <c r="F33" t="n">
-        <v>30.614</v>
+        <v>29.729</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>7</v>
       </c>
       <c r="D34" t="n">
-        <v>17.107</v>
+        <v>15.944</v>
       </c>
       <c r="E34" t="n">
-        <v>20.056</v>
+        <v>16.54</v>
       </c>
       <c r="F34" t="n">
-        <v>17.608</v>
+        <v>16.026</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>64.649</v>
+        <v>65.977</v>
       </c>
       <c r="E35" t="n">
-        <v>71.40300000000001</v>
+        <v>71.657</v>
       </c>
       <c r="F35" t="n">
-        <v>66.377</v>
+        <v>66.05800000000001</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>7</v>
       </c>
       <c r="D36" t="n">
-        <v>17.917</v>
+        <v>18.095</v>
       </c>
       <c r="E36" t="n">
-        <v>18.419</v>
+        <v>19.326</v>
       </c>
       <c r="F36" t="n">
-        <v>18.014</v>
+        <v>18.352</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="D37" t="n">
-        <v>38.958</v>
+        <v>37.49</v>
       </c>
       <c r="E37" t="n">
-        <v>41.892</v>
+        <v>38.215</v>
       </c>
       <c r="F37" t="n">
-        <v>39.564</v>
+        <v>37.576</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>37.244</v>
+        <v>39.97</v>
       </c>
       <c r="E38" t="n">
-        <v>42.688</v>
+        <v>45.018</v>
       </c>
       <c r="F38" t="n">
-        <v>38.854</v>
+        <v>41.54</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>7</v>
       </c>
       <c r="D39" t="n">
-        <v>27.209</v>
+        <v>26.109</v>
       </c>
       <c r="E39" t="n">
-        <v>28.899</v>
+        <v>26.232</v>
       </c>
       <c r="F39" t="n">
-        <v>27.443</v>
+        <v>26.127</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>7</v>
       </c>
       <c r="D40" t="n">
-        <v>26.894</v>
+        <v>26.414</v>
       </c>
       <c r="E40" t="n">
-        <v>29.83</v>
+        <v>27.112</v>
       </c>
       <c r="F40" t="n">
-        <v>27.31</v>
+        <v>26.548</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>7</v>
       </c>
       <c r="D41" t="n">
-        <v>34.344</v>
+        <v>31.386</v>
       </c>
       <c r="E41" t="n">
-        <v>37.833</v>
+        <v>32.307</v>
       </c>
       <c r="F41" t="n">
-        <v>34.469</v>
+        <v>31.464</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>36148</v>
+        <v>36134</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -487,22 +487,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>0.049</v>
+        <v>2.617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.051</v>
+        <v>2.838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.049</v>
+        <v>2.644</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>371</v>
+        <v>116220</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +517,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4.672</v>
+        <v>4.908</v>
       </c>
       <c r="E3" t="n">
-        <v>4.744</v>
+        <v>5.115</v>
       </c>
       <c r="F3" t="n">
-        <v>4.615</v>
+        <v>4.898</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>26936</v>
+        <v>115410</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="E4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.06</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.058</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>44.398</v>
+        <v>44.556</v>
       </c>
       <c r="E5" t="n">
-        <v>46.424</v>
+        <v>46.472</v>
       </c>
       <c r="F5" t="n">
-        <v>44.362</v>
+        <v>44.743</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>120204</v>
+        <v>515160</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +607,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>6.41</v>
+        <v>7.449</v>
       </c>
       <c r="E6" t="n">
-        <v>7.187</v>
+        <v>7.755</v>
       </c>
       <c r="F6" t="n">
-        <v>6.607</v>
+        <v>7.272</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>48664</v>
+        <v>211170</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>20.226</v>
+        <v>20.764</v>
       </c>
       <c r="E7" t="n">
-        <v>21.353</v>
+        <v>23.48</v>
       </c>
       <c r="F7" t="n">
-        <v>20.163</v>
+        <v>21.078</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>63350</v>
+        <v>271530</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>86.553</v>
+        <v>85.7</v>
       </c>
       <c r="E8" t="n">
-        <v>92.64</v>
+        <v>94.227</v>
       </c>
       <c r="F8" t="n">
-        <v>87.524</v>
+        <v>86.887</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>55.885</v>
+        <v>5.419</v>
       </c>
       <c r="E9" t="n">
-        <v>56.478</v>
+        <v>6.512</v>
       </c>
       <c r="F9" t="n">
-        <v>56.003</v>
+        <v>5.361</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>116431</v>
+        <v>115950</v>
       </c>
     </row>
     <row r="10">
@@ -727,22 +727,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>55.655</v>
+        <v>0.013</v>
       </c>
       <c r="E10" t="n">
-        <v>56.331</v>
+        <v>0.015</v>
       </c>
       <c r="F10" t="n">
-        <v>55.781</v>
+        <v>0.014</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116431</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>79.875</v>
+        <v>51.006</v>
       </c>
       <c r="E11" t="n">
-        <v>81.014</v>
+        <v>54.06</v>
       </c>
       <c r="F11" t="n">
-        <v>80.131</v>
+        <v>51.259</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>116431</v>
+        <v>500340</v>
       </c>
     </row>
     <row r="12">
@@ -787,22 +787,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>48.794</v>
+        <v>57.663</v>
       </c>
       <c r="E12" t="n">
-        <v>50.446</v>
+        <v>64.524</v>
       </c>
       <c r="F12" t="n">
-        <v>48.601</v>
+        <v>58.367</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="13">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>46.713</v>
+        <v>47.315</v>
       </c>
       <c r="E13" t="n">
-        <v>47.351</v>
+        <v>54.389</v>
       </c>
       <c r="F13" t="n">
-        <v>46.568</v>
+        <v>48.521</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="14">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>40.226</v>
+        <v>40.604</v>
       </c>
       <c r="E14" t="n">
-        <v>40.531</v>
+        <v>44.486</v>
       </c>
       <c r="F14" t="n">
-        <v>40.326</v>
+        <v>41.228</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="15">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>104.091</v>
+        <v>105.014</v>
       </c>
       <c r="E15" t="n">
-        <v>109.468</v>
+        <v>108.667</v>
       </c>
       <c r="F15" t="n">
-        <v>105.163</v>
+        <v>105.74</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="16">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>97.327</v>
+        <v>96.416</v>
       </c>
       <c r="E16" t="n">
-        <v>98.69499999999999</v>
+        <v>102.971</v>
       </c>
       <c r="F16" t="n">
-        <v>97.059</v>
+        <v>97.131</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="17">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>61.673</v>
+        <v>62.686</v>
       </c>
       <c r="E17" t="n">
-        <v>64.386</v>
+        <v>67.584</v>
       </c>
       <c r="F17" t="n">
-        <v>62.14</v>
+        <v>63.346</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="18">
@@ -967,22 +967,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>80.074</v>
+        <v>80.69199999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>80.595</v>
+        <v>83.788</v>
       </c>
       <c r="F18" t="n">
-        <v>80.09099999999999</v>
+        <v>81.313</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="19">
@@ -997,22 +997,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>57.1</v>
+        <v>46.699</v>
       </c>
       <c r="E19" t="n">
-        <v>58.134</v>
+        <v>48.12</v>
       </c>
       <c r="F19" t="n">
-        <v>57.344</v>
+        <v>46.875</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="20">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>56.697</v>
+        <v>48.208</v>
       </c>
       <c r="E20" t="n">
-        <v>58.226</v>
+        <v>51.374</v>
       </c>
       <c r="F20" t="n">
-        <v>56.868</v>
+        <v>48.425</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="21">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>83.86799999999999</v>
+        <v>71.598</v>
       </c>
       <c r="E21" t="n">
-        <v>87.52800000000001</v>
+        <v>78.273</v>
       </c>
       <c r="F21" t="n">
-        <v>84.56999999999999</v>
+        <v>72.91200000000001</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>116431</v>
+        <v>498990</v>
       </c>
     </row>
     <row r="22">
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>0.049</v>
+        <v>2.186</v>
       </c>
       <c r="E22" t="n">
-        <v>0.055</v>
+        <v>2.324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>2.188</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>371</v>
+        <v>116100</v>
       </c>
     </row>
     <row r="23">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>3.856</v>
+        <v>4.175</v>
       </c>
       <c r="E23" t="n">
-        <v>4.126</v>
+        <v>4.727</v>
       </c>
       <c r="F23" t="n">
-        <v>3.871</v>
+        <v>4.225</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>26740</v>
+        <v>115050</v>
       </c>
     </row>
     <row r="24">
@@ -1147,22 +1147,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.049</v>
+        <v>0.068</v>
       </c>
       <c r="F24" t="n">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>24.7</v>
+        <v>25.545</v>
       </c>
       <c r="E25" t="n">
-        <v>25.728</v>
+        <v>28.816</v>
       </c>
       <c r="F25" t="n">
-        <v>24.95</v>
+        <v>26.134</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>39837</v>
+        <v>170760</v>
       </c>
     </row>
     <row r="26">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>4.591</v>
+        <v>4.585</v>
       </c>
       <c r="E26" t="n">
-        <v>4.615</v>
+        <v>4.712</v>
       </c>
       <c r="F26" t="n">
-        <v>4.578</v>
+        <v>4.442</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>29820</v>
+        <v>129090</v>
       </c>
     </row>
     <row r="27">
@@ -1237,22 +1237,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>10.418</v>
+        <v>11.196</v>
       </c>
       <c r="E27" t="n">
-        <v>11.893</v>
+        <v>13.464</v>
       </c>
       <c r="F27" t="n">
-        <v>10.7</v>
+        <v>11.415</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>33803</v>
+        <v>145290</v>
       </c>
     </row>
     <row r="28">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>22.776</v>
+        <v>23.928</v>
       </c>
       <c r="E28" t="n">
-        <v>23.636</v>
+        <v>25.44</v>
       </c>
       <c r="F28" t="n">
-        <v>22.897</v>
+        <v>24.083</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>36680</v>
+        <v>157230</v>
       </c>
     </row>
     <row r="29">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>3.339</v>
+        <v>3.236</v>
       </c>
       <c r="E29" t="n">
-        <v>3.642</v>
+        <v>3.572</v>
       </c>
       <c r="F29" t="n">
-        <v>3.399</v>
+        <v>3.277</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>26859</v>
+        <v>115590</v>
       </c>
     </row>
     <row r="30">
@@ -1327,22 +1327,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.011</v>
       </c>
-      <c r="E30" t="n">
-        <v>0.013</v>
-      </c>
       <c r="F30" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>13.166</v>
+        <v>13.185</v>
       </c>
       <c r="E31" t="n">
-        <v>13.706</v>
+        <v>14.005</v>
       </c>
       <c r="F31" t="n">
-        <v>13.214</v>
+        <v>13.33</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>36449</v>
+        <v>156240</v>
       </c>
     </row>
     <row r="32">
@@ -1387,22 +1387,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>18.352</v>
+        <v>15.899</v>
       </c>
       <c r="E32" t="n">
-        <v>19.015</v>
+        <v>16.6</v>
       </c>
       <c r="F32" t="n">
-        <v>18.407</v>
+        <v>16.045</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="33">
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>29.84</v>
+        <v>30.291</v>
       </c>
       <c r="E33" t="n">
-        <v>30.17</v>
+        <v>32.022</v>
       </c>
       <c r="F33" t="n">
-        <v>29.729</v>
+        <v>30.493</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="34">
@@ -1447,22 +1447,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>15.944</v>
+        <v>15.846</v>
       </c>
       <c r="E34" t="n">
-        <v>16.54</v>
+        <v>16.395</v>
       </c>
       <c r="F34" t="n">
-        <v>16.026</v>
+        <v>15.88</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="35">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>65.977</v>
+        <v>62.916</v>
       </c>
       <c r="E35" t="n">
-        <v>71.657</v>
+        <v>65.41200000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>66.05800000000001</v>
+        <v>63.238</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="36">
@@ -1507,22 +1507,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>18.095</v>
+        <v>18.367</v>
       </c>
       <c r="E36" t="n">
-        <v>19.326</v>
+        <v>20.586</v>
       </c>
       <c r="F36" t="n">
-        <v>18.352</v>
+        <v>18.49</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="37">
@@ -1537,22 +1537,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>37.49</v>
+        <v>38.955</v>
       </c>
       <c r="E37" t="n">
-        <v>38.215</v>
+        <v>39.638</v>
       </c>
       <c r="F37" t="n">
-        <v>37.576</v>
+        <v>38.395</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="38">
@@ -1567,22 +1567,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>39.97</v>
+        <v>37.477</v>
       </c>
       <c r="E38" t="n">
-        <v>45.018</v>
+        <v>47.095</v>
       </c>
       <c r="F38" t="n">
-        <v>41.54</v>
+        <v>39.252</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="39">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>26.109</v>
+        <v>27.203</v>
       </c>
       <c r="E39" t="n">
-        <v>26.232</v>
+        <v>28.149</v>
       </c>
       <c r="F39" t="n">
-        <v>26.127</v>
+        <v>27.098</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="40">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>26.414</v>
+        <v>26.748</v>
       </c>
       <c r="E40" t="n">
-        <v>27.112</v>
+        <v>28.616</v>
       </c>
       <c r="F40" t="n">
-        <v>26.548</v>
+        <v>26.969</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="41">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>31.386</v>
+        <v>32.431</v>
       </c>
       <c r="E41" t="n">
-        <v>32.307</v>
+        <v>35.016</v>
       </c>
       <c r="F41" t="n">
-        <v>31.464</v>
+        <v>32.958</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>36134</v>
+        <v>154890</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>2.617</v>
+        <v>2.674</v>
       </c>
       <c r="E2" t="n">
-        <v>2.838</v>
+        <v>3.278</v>
       </c>
       <c r="F2" t="n">
-        <v>2.644</v>
+        <v>2.765</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>116220</v>
+        <v>116310</v>
       </c>
     </row>
     <row r="3">
@@ -520,19 +520,19 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4.908</v>
+        <v>5.046</v>
       </c>
       <c r="E3" t="n">
-        <v>5.115</v>
+        <v>5.804</v>
       </c>
       <c r="F3" t="n">
-        <v>4.898</v>
+        <v>5.153</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>115410</v>
+        <v>115440</v>
       </c>
     </row>
     <row r="4">
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08</v>
+        <v>0.099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>44.556</v>
+        <v>45.51</v>
       </c>
       <c r="E5" t="n">
-        <v>46.472</v>
+        <v>51.896</v>
       </c>
       <c r="F5" t="n">
-        <v>44.743</v>
+        <v>46.884</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>7.449</v>
+        <v>6.652</v>
       </c>
       <c r="E6" t="n">
-        <v>7.755</v>
+        <v>8.138</v>
       </c>
       <c r="F6" t="n">
-        <v>7.272</v>
+        <v>6.957</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>211170</v>
+        <v>207360</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>20.764</v>
+        <v>20.706</v>
       </c>
       <c r="E7" t="n">
-        <v>23.48</v>
+        <v>22.155</v>
       </c>
       <c r="F7" t="n">
-        <v>21.078</v>
+        <v>20.834</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>271530</v>
+        <v>271500</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>85.7</v>
+        <v>86.658</v>
       </c>
       <c r="E8" t="n">
-        <v>94.227</v>
+        <v>100.973</v>
       </c>
       <c r="F8" t="n">
-        <v>86.887</v>
+        <v>88.964</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>5.419</v>
+        <v>4.252</v>
       </c>
       <c r="E9" t="n">
-        <v>6.512</v>
+        <v>4.77</v>
       </c>
       <c r="F9" t="n">
-        <v>5.361</v>
+        <v>4.332</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>0.013</v>
+        <v>2.06</v>
       </c>
       <c r="E10" t="n">
-        <v>0.015</v>
+        <v>2.165</v>
       </c>
       <c r="F10" t="n">
-        <v>0.014</v>
+        <v>2.063</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>90</v>
+        <v>115980</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>51.006</v>
+        <v>50.683</v>
       </c>
       <c r="E11" t="n">
-        <v>54.06</v>
+        <v>55.324</v>
       </c>
       <c r="F11" t="n">
-        <v>51.259</v>
+        <v>51.396</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>57.663</v>
+        <v>57.286</v>
       </c>
       <c r="E12" t="n">
-        <v>64.524</v>
+        <v>61.854</v>
       </c>
       <c r="F12" t="n">
-        <v>58.367</v>
+        <v>57.851</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>47.315</v>
+        <v>47.27</v>
       </c>
       <c r="E13" t="n">
-        <v>54.389</v>
+        <v>48.251</v>
       </c>
       <c r="F13" t="n">
-        <v>48.521</v>
+        <v>47.144</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>40.604</v>
+        <v>41.319</v>
       </c>
       <c r="E14" t="n">
-        <v>44.486</v>
+        <v>45.456</v>
       </c>
       <c r="F14" t="n">
-        <v>41.228</v>
+        <v>41.759</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>105.014</v>
+        <v>109.003</v>
       </c>
       <c r="E15" t="n">
-        <v>108.667</v>
+        <v>113.807</v>
       </c>
       <c r="F15" t="n">
-        <v>105.74</v>
+        <v>109.432</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>96.416</v>
+        <v>100.043</v>
       </c>
       <c r="E16" t="n">
-        <v>102.971</v>
+        <v>109.027</v>
       </c>
       <c r="F16" t="n">
-        <v>97.131</v>
+        <v>100.785</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>62.686</v>
+        <v>62.998</v>
       </c>
       <c r="E17" t="n">
-        <v>67.584</v>
+        <v>69.03</v>
       </c>
       <c r="F17" t="n">
-        <v>63.346</v>
+        <v>64.03400000000001</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>80.69199999999999</v>
+        <v>82.268</v>
       </c>
       <c r="E18" t="n">
-        <v>83.788</v>
+        <v>83.962</v>
       </c>
       <c r="F18" t="n">
-        <v>81.313</v>
+        <v>82.491</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>46.699</v>
+        <v>46.876</v>
       </c>
       <c r="E19" t="n">
-        <v>48.12</v>
+        <v>51.691</v>
       </c>
       <c r="F19" t="n">
-        <v>46.875</v>
+        <v>47.593</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>48.208</v>
+        <v>47.685</v>
       </c>
       <c r="E20" t="n">
-        <v>51.374</v>
+        <v>50.892</v>
       </c>
       <c r="F20" t="n">
-        <v>48.425</v>
+        <v>48.402</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>71.598</v>
+        <v>74.456</v>
       </c>
       <c r="E21" t="n">
-        <v>78.273</v>
+        <v>80.892</v>
       </c>
       <c r="F21" t="n">
-        <v>72.91200000000001</v>
+        <v>75.01000000000001</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>2.186</v>
+        <v>2.183</v>
       </c>
       <c r="E22" t="n">
-        <v>2.324</v>
+        <v>2.277</v>
       </c>
       <c r="F22" t="n">
-        <v>2.188</v>
+        <v>2.181</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116100</v>
+        <v>115980</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>4.175</v>
+        <v>3.778</v>
       </c>
       <c r="E23" t="n">
-        <v>4.727</v>
+        <v>4.09</v>
       </c>
       <c r="F23" t="n">
-        <v>4.225</v>
+        <v>3.78</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>115050</v>
+        <v>115020</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.047</v>
+        <v>0.062</v>
       </c>
       <c r="E24" t="n">
-        <v>0.068</v>
+        <v>0.145</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.126</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>25.545</v>
+        <v>27.352</v>
       </c>
       <c r="E25" t="n">
-        <v>28.816</v>
+        <v>32.196</v>
       </c>
       <c r="F25" t="n">
-        <v>26.134</v>
+        <v>27.869</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>170760</v>
+        <v>170730</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>4.585</v>
+        <v>4.666</v>
       </c>
       <c r="E26" t="n">
-        <v>4.712</v>
+        <v>5.549</v>
       </c>
       <c r="F26" t="n">
-        <v>4.442</v>
+        <v>4.748</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>129090</v>
+        <v>126810</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>11.196</v>
+        <v>10.074</v>
       </c>
       <c r="E27" t="n">
-        <v>13.464</v>
+        <v>12.459</v>
       </c>
       <c r="F27" t="n">
-        <v>11.415</v>
+        <v>10.463</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>145290</v>
+        <v>145110</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>23.928</v>
+        <v>23.838</v>
       </c>
       <c r="E28" t="n">
-        <v>25.44</v>
+        <v>25.259</v>
       </c>
       <c r="F28" t="n">
-        <v>24.083</v>
+        <v>24.012</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157230</v>
+        <v>157200</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>3.236</v>
+        <v>3.261</v>
       </c>
       <c r="E29" t="n">
-        <v>3.572</v>
+        <v>3.564</v>
       </c>
       <c r="F29" t="n">
-        <v>3.277</v>
+        <v>3.293</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>115590</v>
+        <v>115530</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>3.247</v>
       </c>
       <c r="E30" t="n">
-        <v>0.011</v>
+        <v>3.547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01</v>
+        <v>3.295</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90</v>
+        <v>115500</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>13.185</v>
+        <v>14.578</v>
       </c>
       <c r="E31" t="n">
-        <v>14.005</v>
+        <v>15.99</v>
       </c>
       <c r="F31" t="n">
-        <v>13.33</v>
+        <v>14.642</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156240</v>
+        <v>156210</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>15.899</v>
+        <v>17.47</v>
       </c>
       <c r="E32" t="n">
-        <v>16.6</v>
+        <v>19.288</v>
       </c>
       <c r="F32" t="n">
-        <v>16.045</v>
+        <v>17.416</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>30.291</v>
+        <v>30.333</v>
       </c>
       <c r="E33" t="n">
-        <v>32.022</v>
+        <v>31.921</v>
       </c>
       <c r="F33" t="n">
-        <v>30.493</v>
+        <v>30.524</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>15.846</v>
+        <v>16.969</v>
       </c>
       <c r="E34" t="n">
-        <v>16.395</v>
+        <v>21.949</v>
       </c>
       <c r="F34" t="n">
-        <v>15.88</v>
+        <v>20.24</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>62.916</v>
+        <v>65.581</v>
       </c>
       <c r="E35" t="n">
-        <v>65.41200000000001</v>
+        <v>82.152</v>
       </c>
       <c r="F35" t="n">
-        <v>63.238</v>
+        <v>68.14700000000001</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>18.367</v>
+        <v>18.612</v>
       </c>
       <c r="E36" t="n">
-        <v>20.586</v>
+        <v>21.44</v>
       </c>
       <c r="F36" t="n">
-        <v>18.49</v>
+        <v>18.96</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>38.955</v>
+        <v>39.196</v>
       </c>
       <c r="E37" t="n">
-        <v>39.638</v>
+        <v>40.691</v>
       </c>
       <c r="F37" t="n">
-        <v>38.395</v>
+        <v>38.898</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>37.477</v>
+        <v>42.968</v>
       </c>
       <c r="E38" t="n">
-        <v>47.095</v>
+        <v>45.781</v>
       </c>
       <c r="F38" t="n">
-        <v>39.252</v>
+        <v>42.212</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>27.203</v>
+        <v>26.399</v>
       </c>
       <c r="E39" t="n">
-        <v>28.149</v>
+        <v>27.759</v>
       </c>
       <c r="F39" t="n">
-        <v>27.098</v>
+        <v>26.663</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>26.748</v>
+        <v>30.818</v>
       </c>
       <c r="E40" t="n">
-        <v>28.616</v>
+        <v>32.805</v>
       </c>
       <c r="F40" t="n">
-        <v>26.969</v>
+        <v>31.103</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>32.431</v>
+        <v>33.571</v>
       </c>
       <c r="E41" t="n">
-        <v>35.016</v>
+        <v>36.922</v>
       </c>
       <c r="F41" t="n">
-        <v>32.958</v>
+        <v>33.885</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>154890</v>
+        <v>154860</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>2.674</v>
+        <v>3.358</v>
       </c>
       <c r="E2" t="n">
-        <v>3.278</v>
+        <v>4.665</v>
       </c>
       <c r="F2" t="n">
-        <v>2.765</v>
+        <v>3.535</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>116310</v>
+        <v>116190</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>5.046</v>
+        <v>4.708</v>
       </c>
       <c r="E3" t="n">
-        <v>5.804</v>
+        <v>4.845</v>
       </c>
       <c r="F3" t="n">
-        <v>5.153</v>
+        <v>4.713</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.058</v>
+        <v>0.057</v>
       </c>
       <c r="E4" t="n">
-        <v>0.099</v>
+        <v>0.06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.063</v>
+        <v>0.057</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>45.51</v>
+        <v>43.634</v>
       </c>
       <c r="E5" t="n">
-        <v>51.896</v>
+        <v>45.557</v>
       </c>
       <c r="F5" t="n">
-        <v>46.884</v>
+        <v>43.889</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>6.652</v>
+        <v>6.329</v>
       </c>
       <c r="E6" t="n">
-        <v>8.138</v>
+        <v>6.437</v>
       </c>
       <c r="F6" t="n">
-        <v>6.957</v>
+        <v>6.339</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>207360</v>
+        <v>207780</v>
       </c>
     </row>
     <row r="7">
@@ -640,13 +640,13 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>20.706</v>
+        <v>20.024</v>
       </c>
       <c r="E7" t="n">
-        <v>22.155</v>
+        <v>21.128</v>
       </c>
       <c r="F7" t="n">
-        <v>20.834</v>
+        <v>20.033</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>86.658</v>
+        <v>83.749</v>
       </c>
       <c r="E8" t="n">
-        <v>100.973</v>
+        <v>93.078</v>
       </c>
       <c r="F8" t="n">
-        <v>88.964</v>
+        <v>85.255</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,13 +700,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>4.252</v>
+        <v>4.249</v>
       </c>
       <c r="E9" t="n">
-        <v>4.77</v>
+        <v>5.072</v>
       </c>
       <c r="F9" t="n">
-        <v>4.332</v>
+        <v>4.358</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>2.06</v>
+        <v>1.967</v>
       </c>
       <c r="E10" t="n">
-        <v>2.165</v>
+        <v>2.119</v>
       </c>
       <c r="F10" t="n">
-        <v>2.063</v>
+        <v>1.986</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>115980</v>
+        <v>116010</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>50.683</v>
+        <v>50.316</v>
       </c>
       <c r="E11" t="n">
-        <v>55.324</v>
+        <v>52.05</v>
       </c>
       <c r="F11" t="n">
-        <v>51.396</v>
+        <v>50.408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>57.286</v>
+        <v>56.79</v>
       </c>
       <c r="E12" t="n">
-        <v>61.854</v>
+        <v>64.396</v>
       </c>
       <c r="F12" t="n">
-        <v>57.851</v>
+        <v>57.947</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>47.27</v>
+        <v>46.696</v>
       </c>
       <c r="E13" t="n">
-        <v>48.251</v>
+        <v>47.799</v>
       </c>
       <c r="F13" t="n">
-        <v>47.144</v>
+        <v>46.743</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>41.319</v>
+        <v>40.846</v>
       </c>
       <c r="E14" t="n">
-        <v>45.456</v>
+        <v>46.242</v>
       </c>
       <c r="F14" t="n">
-        <v>41.759</v>
+        <v>41.447</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>109.003</v>
+        <v>105.435</v>
       </c>
       <c r="E15" t="n">
-        <v>113.807</v>
+        <v>111.225</v>
       </c>
       <c r="F15" t="n">
-        <v>109.432</v>
+        <v>105.991</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>100.043</v>
+        <v>96.279</v>
       </c>
       <c r="E16" t="n">
-        <v>109.027</v>
+        <v>98.19499999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>100.785</v>
+        <v>96.599</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>62.998</v>
+        <v>62.704</v>
       </c>
       <c r="E17" t="n">
-        <v>69.03</v>
+        <v>68.709</v>
       </c>
       <c r="F17" t="n">
-        <v>64.03400000000001</v>
+        <v>63.521</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>82.268</v>
+        <v>80.626</v>
       </c>
       <c r="E18" t="n">
-        <v>83.962</v>
+        <v>83.56399999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>82.491</v>
+        <v>81.36199999999999</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>46.876</v>
+        <v>47.514</v>
       </c>
       <c r="E19" t="n">
-        <v>51.691</v>
+        <v>51.854</v>
       </c>
       <c r="F19" t="n">
-        <v>47.593</v>
+        <v>48.036</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>47.685</v>
+        <v>48.128</v>
       </c>
       <c r="E20" t="n">
-        <v>50.892</v>
+        <v>53.822</v>
       </c>
       <c r="F20" t="n">
-        <v>48.402</v>
+        <v>48.873</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>74.456</v>
+        <v>72.155</v>
       </c>
       <c r="E21" t="n">
-        <v>80.892</v>
+        <v>80.56399999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>75.01000000000001</v>
+        <v>73.818</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>2.183</v>
+        <v>2.119</v>
       </c>
       <c r="E22" t="n">
-        <v>2.277</v>
+        <v>2.302</v>
       </c>
       <c r="F22" t="n">
-        <v>2.181</v>
+        <v>2.136</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115980</v>
+        <v>116040</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>3.778</v>
+        <v>4.446</v>
       </c>
       <c r="E23" t="n">
-        <v>4.09</v>
+        <v>4.724</v>
       </c>
       <c r="F23" t="n">
-        <v>3.78</v>
+        <v>4.447</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>115020</v>
+        <v>114870</v>
       </c>
     </row>
     <row r="24">
@@ -1150,13 +1150,13 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.062</v>
+        <v>0.047</v>
       </c>
       <c r="E24" t="n">
-        <v>0.145</v>
+        <v>0.057</v>
       </c>
       <c r="F24" t="n">
-        <v>0.126</v>
+        <v>0.049</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>27.352</v>
+        <v>26.015</v>
       </c>
       <c r="E25" t="n">
-        <v>32.196</v>
+        <v>31.571</v>
       </c>
       <c r="F25" t="n">
-        <v>27.869</v>
+        <v>26.621</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>170730</v>
+        <v>170790</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>4.666</v>
+        <v>4.406</v>
       </c>
       <c r="E26" t="n">
-        <v>5.549</v>
+        <v>4.588</v>
       </c>
       <c r="F26" t="n">
-        <v>4.748</v>
+        <v>4.286</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>126810</v>
+        <v>126870</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>10.074</v>
+        <v>9.893000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>12.459</v>
+        <v>11.992</v>
       </c>
       <c r="F27" t="n">
-        <v>10.463</v>
+        <v>10.208</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>145110</v>
+        <v>144870</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>23.838</v>
+        <v>23.169</v>
       </c>
       <c r="E28" t="n">
-        <v>25.259</v>
+        <v>23.681</v>
       </c>
       <c r="F28" t="n">
-        <v>24.012</v>
+        <v>23.154</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157200</v>
+        <v>157260</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>3.261</v>
+        <v>3.252</v>
       </c>
       <c r="E29" t="n">
-        <v>3.564</v>
+        <v>4.529</v>
       </c>
       <c r="F29" t="n">
-        <v>3.293</v>
+        <v>3.503</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>115530</v>
+        <v>115380</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>3.247</v>
+        <v>3.159</v>
       </c>
       <c r="E30" t="n">
-        <v>3.547</v>
+        <v>3.448</v>
       </c>
       <c r="F30" t="n">
-        <v>3.295</v>
+        <v>3.207</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>115500</v>
+        <v>115380</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>14.578</v>
+        <v>13.731</v>
       </c>
       <c r="E31" t="n">
-        <v>15.99</v>
+        <v>15.462</v>
       </c>
       <c r="F31" t="n">
-        <v>14.642</v>
+        <v>13.942</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156210</v>
+        <v>156270</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>17.47</v>
+        <v>15.903</v>
       </c>
       <c r="E32" t="n">
-        <v>19.288</v>
+        <v>17.827</v>
       </c>
       <c r="F32" t="n">
-        <v>17.416</v>
+        <v>16.255</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>30.333</v>
+        <v>29.444</v>
       </c>
       <c r="E33" t="n">
-        <v>31.921</v>
+        <v>32.783</v>
       </c>
       <c r="F33" t="n">
-        <v>30.524</v>
+        <v>30.064</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>16.969</v>
+        <v>15.957</v>
       </c>
       <c r="E34" t="n">
-        <v>21.949</v>
+        <v>19.648</v>
       </c>
       <c r="F34" t="n">
-        <v>20.24</v>
+        <v>16.708</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>65.581</v>
+        <v>62.862</v>
       </c>
       <c r="E35" t="n">
-        <v>82.152</v>
+        <v>67.16</v>
       </c>
       <c r="F35" t="n">
-        <v>68.14700000000001</v>
+        <v>63.884</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>18.612</v>
+        <v>18.504</v>
       </c>
       <c r="E36" t="n">
-        <v>21.44</v>
+        <v>20.694</v>
       </c>
       <c r="F36" t="n">
-        <v>18.96</v>
+        <v>18.652</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>39.196</v>
+        <v>38.895</v>
       </c>
       <c r="E37" t="n">
-        <v>40.691</v>
+        <v>40.679</v>
       </c>
       <c r="F37" t="n">
-        <v>38.898</v>
+        <v>38.516</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>42.968</v>
+        <v>39.045</v>
       </c>
       <c r="E38" t="n">
-        <v>45.781</v>
+        <v>43.555</v>
       </c>
       <c r="F38" t="n">
-        <v>42.212</v>
+        <v>39.651</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>26.399</v>
+        <v>26.387</v>
       </c>
       <c r="E39" t="n">
-        <v>27.759</v>
+        <v>27.914</v>
       </c>
       <c r="F39" t="n">
-        <v>26.663</v>
+        <v>26.703</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>30.818</v>
+        <v>30.239</v>
       </c>
       <c r="E40" t="n">
-        <v>32.805</v>
+        <v>31.324</v>
       </c>
       <c r="F40" t="n">
-        <v>31.103</v>
+        <v>30.455</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>33.571</v>
+        <v>32.966</v>
       </c>
       <c r="E41" t="n">
-        <v>36.922</v>
+        <v>35.012</v>
       </c>
       <c r="F41" t="n">
-        <v>33.885</v>
+        <v>33.035</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>154860</v>
+        <v>154920</v>
       </c>
     </row>
   </sheetData>

--- a/exports/performance_run_100000.xlsx
+++ b/exports/performance_run_100000.xlsx
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>3.358</v>
+        <v>4.674</v>
       </c>
       <c r="E2" t="n">
-        <v>4.665</v>
+        <v>6.054</v>
       </c>
       <c r="F2" t="n">
-        <v>3.535</v>
+        <v>4.562</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>116190</v>
+        <v>116250</v>
       </c>
     </row>
     <row r="3">
@@ -520,13 +520,13 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>4.708</v>
+        <v>4.694</v>
       </c>
       <c r="E3" t="n">
-        <v>4.845</v>
+        <v>4.907</v>
       </c>
       <c r="F3" t="n">
-        <v>4.713</v>
+        <v>4.721</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>0.057</v>
+        <v>0.059</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F4" t="n">
-        <v>0.057</v>
+        <v>0.062</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>43.634</v>
+        <v>45.233</v>
       </c>
       <c r="E5" t="n">
-        <v>45.557</v>
+        <v>63.159</v>
       </c>
       <c r="F5" t="n">
-        <v>43.889</v>
+        <v>48.217</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -610,19 +610,19 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>6.329</v>
+        <v>9.678000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>6.437</v>
+        <v>15.45</v>
       </c>
       <c r="F6" t="n">
-        <v>6.339</v>
+        <v>10.456</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>207780</v>
+        <v>209520</v>
       </c>
     </row>
     <row r="7">
@@ -640,19 +640,19 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>20.024</v>
+        <v>24.576</v>
       </c>
       <c r="E7" t="n">
-        <v>21.128</v>
+        <v>34.465</v>
       </c>
       <c r="F7" t="n">
-        <v>20.033</v>
+        <v>25.933</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>271500</v>
+        <v>271470</v>
       </c>
     </row>
     <row r="8">
@@ -670,13 +670,13 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>83.749</v>
+        <v>89.261</v>
       </c>
       <c r="E8" t="n">
-        <v>93.078</v>
+        <v>113.706</v>
       </c>
       <c r="F8" t="n">
-        <v>85.255</v>
+        <v>93.04600000000001</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -700,19 +700,19 @@
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>4.249</v>
+        <v>5.947</v>
       </c>
       <c r="E9" t="n">
-        <v>5.072</v>
+        <v>7.208</v>
       </c>
       <c r="F9" t="n">
-        <v>4.358</v>
+        <v>6.033</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>115950</v>
+        <v>115980</v>
       </c>
     </row>
     <row r="10">
@@ -730,19 +730,19 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>1.967</v>
+        <v>3.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2.119</v>
+        <v>4.348</v>
       </c>
       <c r="F10" t="n">
-        <v>1.986</v>
+        <v>3.614</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>116010</v>
+        <v>116040</v>
       </c>
     </row>
     <row r="11">
@@ -760,13 +760,13 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>50.316</v>
+        <v>60.59</v>
       </c>
       <c r="E11" t="n">
-        <v>52.05</v>
+        <v>76.58199999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>50.408</v>
+        <v>62.364</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -790,13 +790,13 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>56.79</v>
+        <v>68.767</v>
       </c>
       <c r="E12" t="n">
-        <v>64.396</v>
+        <v>76.471</v>
       </c>
       <c r="F12" t="n">
-        <v>57.947</v>
+        <v>68.36199999999999</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -820,13 +820,13 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>46.696</v>
+        <v>47.996</v>
       </c>
       <c r="E13" t="n">
-        <v>47.799</v>
+        <v>50.811</v>
       </c>
       <c r="F13" t="n">
-        <v>46.743</v>
+        <v>48.581</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>40.846</v>
+        <v>41.797</v>
       </c>
       <c r="E14" t="n">
-        <v>46.242</v>
+        <v>43.087</v>
       </c>
       <c r="F14" t="n">
-        <v>41.447</v>
+        <v>41.9</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>105.435</v>
+        <v>109.665</v>
       </c>
       <c r="E15" t="n">
-        <v>111.225</v>
+        <v>126.012</v>
       </c>
       <c r="F15" t="n">
-        <v>105.991</v>
+        <v>111.661</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>96.279</v>
+        <v>134.024</v>
       </c>
       <c r="E16" t="n">
-        <v>98.19499999999999</v>
+        <v>203.983</v>
       </c>
       <c r="F16" t="n">
-        <v>96.599</v>
+        <v>142.892</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>62.704</v>
+        <v>62.364</v>
       </c>
       <c r="E17" t="n">
-        <v>68.709</v>
+        <v>67.242</v>
       </c>
       <c r="F17" t="n">
-        <v>63.521</v>
+        <v>62.926</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -970,13 +970,13 @@
         <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>80.626</v>
+        <v>96.574</v>
       </c>
       <c r="E18" t="n">
-        <v>83.56399999999999</v>
+        <v>203.075</v>
       </c>
       <c r="F18" t="n">
-        <v>81.36199999999999</v>
+        <v>111.143</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1000,13 +1000,13 @@
         <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>47.514</v>
+        <v>50.593</v>
       </c>
       <c r="E19" t="n">
-        <v>51.854</v>
+        <v>63.945</v>
       </c>
       <c r="F19" t="n">
-        <v>48.036</v>
+        <v>55.91</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1030,13 +1030,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>48.128</v>
+        <v>54.131</v>
       </c>
       <c r="E20" t="n">
-        <v>53.822</v>
+        <v>87.27200000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>48.873</v>
+        <v>61.094</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1060,13 +1060,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>72.155</v>
+        <v>84.129</v>
       </c>
       <c r="E21" t="n">
-        <v>80.56399999999999</v>
+        <v>103.712</v>
       </c>
       <c r="F21" t="n">
-        <v>73.818</v>
+        <v>89.503</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1090,19 +1090,19 @@
         <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>2.119</v>
+        <v>3.235</v>
       </c>
       <c r="E22" t="n">
-        <v>2.302</v>
+        <v>5.39</v>
       </c>
       <c r="F22" t="n">
-        <v>2.136</v>
+        <v>3.439</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>116040</v>
+        <v>116100</v>
       </c>
     </row>
     <row r="23">
@@ -1120,19 +1120,19 @@
         <v>30</v>
       </c>
       <c r="D23" t="n">
-        <v>4.446</v>
+        <v>4.67</v>
       </c>
       <c r="E23" t="n">
-        <v>4.724</v>
+        <v>5.827</v>
       </c>
       <c r="F23" t="n">
-        <v>4.447</v>
+        <v>4.829</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>114870</v>
+        <v>115200</v>
       </c>
     </row>
     <row r="24">
@@ -1150,19 +1150,19 @@
         <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="E24" t="n">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25">
@@ -1180,19 +1180,19 @@
         <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>26.015</v>
+        <v>35.091</v>
       </c>
       <c r="E25" t="n">
-        <v>31.571</v>
+        <v>53.882</v>
       </c>
       <c r="F25" t="n">
-        <v>26.621</v>
+        <v>38.054</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>170790</v>
+        <v>170760</v>
       </c>
     </row>
     <row r="26">
@@ -1210,19 +1210,19 @@
         <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>4.406</v>
+        <v>5.76</v>
       </c>
       <c r="E26" t="n">
-        <v>4.588</v>
+        <v>7.182</v>
       </c>
       <c r="F26" t="n">
-        <v>4.286</v>
+        <v>5.861</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>126870</v>
+        <v>128430</v>
       </c>
     </row>
     <row r="27">
@@ -1240,19 +1240,19 @@
         <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>9.893000000000001</v>
+        <v>13.898</v>
       </c>
       <c r="E27" t="n">
-        <v>11.992</v>
+        <v>17.505</v>
       </c>
       <c r="F27" t="n">
-        <v>10.208</v>
+        <v>14.491</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>144870</v>
+        <v>145170</v>
       </c>
     </row>
     <row r="28">
@@ -1270,19 +1270,19 @@
         <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>23.169</v>
+        <v>49.75</v>
       </c>
       <c r="E28" t="n">
-        <v>23.681</v>
+        <v>68.139</v>
       </c>
       <c r="F28" t="n">
-        <v>23.154</v>
+        <v>51.28</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157260</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="29">
@@ -1300,19 +1300,19 @@
         <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>3.252</v>
+        <v>3.65</v>
       </c>
       <c r="E29" t="n">
-        <v>4.529</v>
+        <v>4.198</v>
       </c>
       <c r="F29" t="n">
-        <v>3.503</v>
+        <v>3.704</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>115380</v>
+        <v>115740</v>
       </c>
     </row>
     <row r="30">
@@ -1330,19 +1330,19 @@
         <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>3.159</v>
+        <v>7.163</v>
       </c>
       <c r="E30" t="n">
-        <v>3.448</v>
+        <v>12.833</v>
       </c>
       <c r="F30" t="n">
-        <v>3.207</v>
+        <v>7.563</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>115380</v>
+        <v>115740</v>
       </c>
     </row>
     <row r="31">
@@ -1360,19 +1360,19 @@
         <v>30</v>
       </c>
       <c r="D31" t="n">
-        <v>13.731</v>
+        <v>17.863</v>
       </c>
       <c r="E31" t="n">
-        <v>15.462</v>
+        <v>19.756</v>
       </c>
       <c r="F31" t="n">
-        <v>13.942</v>
+        <v>17.935</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156270</v>
+        <v>156240</v>
       </c>
     </row>
     <row r="32">
@@ -1390,19 +1390,19 @@
         <v>30</v>
       </c>
       <c r="D32" t="n">
-        <v>15.903</v>
+        <v>18.506</v>
       </c>
       <c r="E32" t="n">
-        <v>17.827</v>
+        <v>20.775</v>
       </c>
       <c r="F32" t="n">
-        <v>16.255</v>
+        <v>18.856</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="33">
@@ -1420,19 +1420,19 @@
         <v>30</v>
       </c>
       <c r="D33" t="n">
-        <v>29.444</v>
+        <v>31.525</v>
       </c>
       <c r="E33" t="n">
-        <v>32.783</v>
+        <v>35.405</v>
       </c>
       <c r="F33" t="n">
-        <v>30.064</v>
+        <v>32.189</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="34">
@@ -1450,19 +1450,19 @@
         <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>15.957</v>
+        <v>16.911</v>
       </c>
       <c r="E34" t="n">
-        <v>19.648</v>
+        <v>18.859</v>
       </c>
       <c r="F34" t="n">
-        <v>16.708</v>
+        <v>17.154</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="35">
@@ -1480,19 +1480,19 @@
         <v>30</v>
       </c>
       <c r="D35" t="n">
-        <v>62.862</v>
+        <v>75.23</v>
       </c>
       <c r="E35" t="n">
-        <v>67.16</v>
+        <v>99.173</v>
       </c>
       <c r="F35" t="n">
-        <v>63.884</v>
+        <v>77.748</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="36">
@@ -1510,19 +1510,19 @@
         <v>30</v>
       </c>
       <c r="D36" t="n">
-        <v>18.504</v>
+        <v>19.918</v>
       </c>
       <c r="E36" t="n">
-        <v>20.694</v>
+        <v>25.549</v>
       </c>
       <c r="F36" t="n">
-        <v>18.652</v>
+        <v>20.858</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="37">
@@ -1540,19 +1540,19 @@
         <v>30</v>
       </c>
       <c r="D37" t="n">
-        <v>38.895</v>
+        <v>41.163</v>
       </c>
       <c r="E37" t="n">
-        <v>40.679</v>
+        <v>43.685</v>
       </c>
       <c r="F37" t="n">
-        <v>38.516</v>
+        <v>40.6</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="38">
@@ -1570,19 +1570,19 @@
         <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>39.045</v>
+        <v>44.482</v>
       </c>
       <c r="E38" t="n">
-        <v>43.555</v>
+        <v>51.619</v>
       </c>
       <c r="F38" t="n">
-        <v>39.651</v>
+        <v>45.154</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="39">
@@ -1600,19 +1600,19 @@
         <v>30</v>
       </c>
       <c r="D39" t="n">
-        <v>26.387</v>
+        <v>30.674</v>
       </c>
       <c r="E39" t="n">
-        <v>27.914</v>
+        <v>34.507</v>
       </c>
       <c r="F39" t="n">
-        <v>26.703</v>
+        <v>31.195</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="40">
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>30.239</v>
+        <v>38.355</v>
       </c>
       <c r="E40" t="n">
-        <v>31.324</v>
+        <v>64.318</v>
       </c>
       <c r="F40" t="n">
-        <v>30.455</v>
+        <v>43.322</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
     <row r="41">
@@ -1660,19 +1660,19 @@
         <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>32.966</v>
+        <v>41.655</v>
       </c>
       <c r="E41" t="n">
-        <v>35.012</v>
+        <v>52.626</v>
       </c>
       <c r="F41" t="n">
-        <v>33.035</v>
+        <v>42.528</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>154920</v>
+        <v>154890</v>
       </c>
     </row>
   </sheetData>
